--- a/module/admin-api/InitFiles/zh-tw/wordbank_template.xlsx
+++ b/module/admin-api/InitFiles/zh-tw/wordbank_template.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielwu/go-workspace/src/emotibot.com/emotigo/module/admin-api/InitFiles/zh-tw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changmin/go_home/src/emotibot.com/emotigo/module/admin-api/InitFiles/zh-tw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9145ED31-19F6-0B4E-82A6-FD85B647FF81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="3840" windowWidth="25780" windowHeight="16300" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="720" windowWidth="25780" windowHeight="16300" tabRatio="204" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="说明" sheetId="1" r:id="rId1"/>
+    <sheet name="說明" sheetId="1" r:id="rId1"/>
     <sheet name="例子" sheetId="2" r:id="rId2"/>
-    <sheet name="词库模板" sheetId="3" r:id="rId3"/>
+    <sheet name="詞庫模板" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,18 +98,6 @@
   </si>
   <si>
     <t>敏感詞分類1-2</t>
-  </si>
-  <si>
-    <t>樂蜂專用</t>
-  </si>
-  <si>
-    <t>防偽碼</t>
-  </si>
-  <si>
-    <t>防偽碼，真品碼，防偽，防偽標識，防偽標，防偽標誌</t>
-  </si>
-  <si>
-    <t>唯品會專用</t>
   </si>
   <si>
     <t>其他分類</t>
@@ -164,12 +159,24 @@
  - 如果同義詞單元格中無內容，二級目錄、三級目錄、四級目錄和詞語都可以為空；即只有分類結構，分類目錄中沒有詞
  - 同義詞中的每個詞是系統最終識別的對象，詞語和目錄僅是分類名稱。如需系統識別詞語或者目錄名，請將這些名稱也填入同義詞單元格中</t>
   </si>
+  <si>
+    <t>分類1</t>
+  </si>
+  <si>
+    <t>分類2</t>
+  </si>
+  <si>
+    <t>賣掉</t>
+  </si>
+  <si>
+    <t>同義詞1，同義詞2，同義詞3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -591,26 +598,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="124.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="201" customHeight="1">
+    <row r="1" spans="1:1" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="306">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="289" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -625,20 +632,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView zoomScale="168" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="20.796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="80.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -658,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -678,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -686,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
@@ -697,66 +702,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -765,20 +770,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -795,20 +800,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="20.796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="80.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -828,22 +831,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13" customHeight="1"/>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
